--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-healthcareservice-activity-type.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-healthcareservice-activity-type.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="110">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0-ballot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-02T17:20:16+02:00</t>
+    <t>2023-07-18T12:08:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -342,30 +342,17 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Liste des types d'activités autorisées</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J131-CategorieActiviteSanitaireRegulee-RASS/FHIR/JDV-J131-CategorieActiviteSanitaireRegulee-RASS</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Liste des types d'activités autorisées</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J131-CategorieActiviteSanitaireRegulee-RASS/FHIR/JDV-J131-CategorieActiviteSanitaireRegulee-RASS</t>
   </si>
 </sst>
 </file>
@@ -670,7 +657,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK7"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -679,42 +666,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.1328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.3125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="8.171875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="16.6640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="17.24609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="14.21484375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="33.390625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="126.01171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="17.4453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="34.984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="127.58203125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.6796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1132,7 +1119,7 @@
         <v>76</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>95</v>
@@ -1307,26 +1294,28 @@
         <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AC6" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>102</v>
@@ -1338,117 +1327,12 @@
         <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y7" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="Z7" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AK7" t="s" s="2">
         <v>101</v>
       </c>
     </row>
